--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_15-37.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_15-37.xlsx
@@ -56,33 +56,30 @@
     <t>1:1</t>
   </si>
   <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+    <t>CEFZIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>17:1</t>
+  </si>
+  <si>
+    <t>CYMBATEX 20 MG 30 CAPS.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>CEFZIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CERVITAM 20 CAPS.</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>17:1</t>
-  </si>
-  <si>
-    <t>CYMBATEX 20 MG 30 CAPS.</t>
-  </si>
-  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -224,31 +221,28 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>فازلين بيور كبير</t>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>لونا مرطب شفاه</t>
   </si>
   <si>
     <t>3:0</t>
-  </si>
-  <si>
-    <t>فرش اسنان HASI</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الصغير</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>لونا مرطب شفاه</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -960,17 +954,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -978,7 +972,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -986,7 +980,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -996,7 +990,7 @@
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1004,7 +998,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1012,17 +1006,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1038,17 +1032,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1064,17 +1058,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1082,7 +1076,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1090,17 +1084,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1116,17 +1110,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1134,7 +1128,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1142,17 +1136,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1160,7 +1154,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1168,17 +1162,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1186,7 +1180,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1194,17 +1188,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1220,13 +1214,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1246,13 +1240,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1272,13 +1266,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1298,13 +1292,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1324,17 +1318,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1342,7 +1336,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1350,17 +1344,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1376,13 +1370,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>55</v>
+        <v>128.25</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1402,17 +1396,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>128.25</v>
+        <v>22.079999999999998</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1428,17 +1422,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>22.079999999999998</v>
+        <v>102</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1454,17 +1448,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1472,7 +1466,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1480,17 +1474,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1506,17 +1500,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1524,7 +1518,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1532,17 +1526,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1584,13 +1578,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1616,11 +1610,11 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1636,13 +1630,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1654,7 +1648,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1662,13 +1656,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>51</v>
+        <v>2.5</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1680,7 +1674,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1688,13 +1682,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>2.5</v>
+        <v>48</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1714,13 +1708,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1740,13 +1734,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1766,17 +1760,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1784,7 +1778,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1792,17 +1786,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1810,7 +1804,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1818,17 +1812,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1836,7 +1830,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1844,17 +1838,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1862,7 +1856,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1870,17 +1864,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1888,7 +1882,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1896,13 +1890,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1914,7 +1908,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1922,13 +1916,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -1940,7 +1934,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1948,13 +1942,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1966,7 +1960,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1974,17 +1968,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -1992,7 +1986,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2000,13 +1994,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2018,7 +2012,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2026,103 +2020,51 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" ht="25.5" customHeight="1">
-      <c r="A50" s="6">
-        <v>47</v>
-      </c>
-      <c t="s" r="B50" s="7">
-        <v>82</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c t="s" r="H50" s="8">
-        <v>9</v>
-      </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9">
-        <v>70</v>
-      </c>
-      <c r="M50" s="9"/>
-      <c t="s" r="N50" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" ht="24.75" customHeight="1">
-      <c r="A51" s="6">
-        <v>48</v>
-      </c>
-      <c t="s" r="B51" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" ht="26.25" customHeight="1">
+      <c r="K50" s="10">
+        <v>2911.8299999999999</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="11">
         <v>83</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c t="s" r="H51" s="8">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c t="s" r="F51" s="12">
         <v>84</v>
       </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9">
-        <v>45</v>
-      </c>
-      <c r="M51" s="9"/>
-      <c t="s" r="N51" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" ht="26.25" customHeight="1">
-      <c r="K52" s="10">
-        <v>2978.8299999999999</v>
-      </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="11">
+      <c r="G51" s="12"/>
+      <c r="H51" s="13"/>
+      <c t="s" r="I51" s="14">
         <v>85</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c t="s" r="F53" s="12">
-        <v>86</v>
-      </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13"/>
-      <c t="s" r="I53" s="14">
-        <v>87</v>
-      </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="155">
+  <mergeCells count="149">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2268,16 +2210,10 @@
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:N51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
